--- a/data/campeonato_8_1.xlsx
+++ b/data/campeonato_8_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="49">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -71,61 +71,97 @@
     <t>1/1/2022</t>
   </si>
   <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>4:6</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>6:5</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>7:6</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>5:9</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>5:3</t>
+    <t>3:6</t>
   </si>
 </sst>
 </file>
@@ -488,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -505,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -522,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -539,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -573,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -590,10 +626,10 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -607,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -620,7 +656,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +681,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -656,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -667,10 +703,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -681,10 +717,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -695,10 +731,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -706,7 +742,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -714,10 +750,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -728,13 +764,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -748,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -756,18 +792,18 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -789,13 +825,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -803,13 +839,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -817,18 +853,18 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -839,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -850,13 +886,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -864,13 +900,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -878,18 +914,18 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -897,13 +933,13 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -911,13 +947,13 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -925,13 +961,13 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -939,18 +975,18 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -961,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -972,13 +1008,13 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -986,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1000,18 +1036,18 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1019,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1033,13 +1069,13 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1047,13 +1083,13 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1061,18 +1097,18 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1083,10 +1119,10 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1094,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1108,13 +1144,13 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1122,18 +1158,18 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1141,13 +1177,13 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1155,13 +1191,13 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1169,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1183,18 +1219,18 @@
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1202,10 +1238,10 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
@@ -1216,13 +1252,13 @@
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1230,13 +1266,13 @@
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1244,18 +1280,18 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1263,13 +1299,13 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1277,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1291,13 +1327,13 @@
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1305,18 +1341,18 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1324,13 +1360,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1338,13 +1374,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1352,13 +1388,13 @@
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1366,13 +1402,135 @@
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/campeonato_8_1.xlsx
+++ b/data/campeonato_8_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="43">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -71,97 +71,79 @@
     <t>1/1/2022</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1:9</t>
   </si>
   <si>
     <t>5:3</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>4:6</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>6:5</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>7:6</t>
-  </si>
-  <si>
-    <t>5:6</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>5:9</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>3:6</t>
+    <t>4:0</t>
   </si>
 </sst>
 </file>
@@ -524,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -544,7 +526,7 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -558,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -575,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -595,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -609,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -626,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -643,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -689,10 +671,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -703,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -717,10 +699,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -731,10 +713,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -750,10 +732,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -764,10 +746,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -778,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -792,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -811,13 +793,13 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -831,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -839,13 +821,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -853,13 +835,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -872,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -886,10 +868,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -900,10 +882,10 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
@@ -914,13 +896,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -939,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -947,13 +929,13 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -961,13 +943,13 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -978,10 +960,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -994,13 +976,13 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1008,13 +990,13 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1022,13 +1004,13 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1036,13 +1018,13 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1055,13 +1037,13 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1069,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1083,13 +1065,13 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1097,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1116,13 +1098,13 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1130,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1144,13 +1126,13 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1158,13 +1140,13 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1177,13 +1159,13 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1194,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1208,10 +1190,10 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1219,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1238,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
@@ -1252,13 +1234,13 @@
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1266,13 +1248,13 @@
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1280,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1299,13 +1281,13 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1313,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1327,13 +1309,13 @@
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1341,13 +1323,13 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1360,13 +1342,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1374,13 +1356,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1388,13 +1370,13 @@
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1402,13 +1384,13 @@
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1421,13 +1403,13 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1435,13 +1417,13 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1449,10 +1431,10 @@
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
         <v>29</v>
@@ -1466,10 +1448,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1482,13 +1464,13 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1502,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1510,13 +1492,13 @@
         <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1527,10 +1509,10 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
